--- a/IceCreamFaves_Solved.xlsx
+++ b/IceCreamFaves_Solved.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/dev/bootcamp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/01-Stu_IceCreamFaves/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af0e924bb0db5073/Desktop/hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1811D17BBD0D174C38897C528DDFADD331843101" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43CF2A53-5059-403D-BDAF-183037738460}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Vanilla</t>
   </si>
@@ -72,12 +73,15 @@
   </si>
   <si>
     <t>Percentage of Total</t>
+  </si>
+  <si>
+    <t>DEMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,15 +189,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C11"/>
-  <sortState ref="A2:C11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
     <sortCondition descending="1" ref="C1:C11"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Flavor"/>
-    <tableColumn id="2" name="Number of Faves"/>
-    <tableColumn id="3" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Flavor"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Number of Faves"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>B2/$A$15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -497,21 +501,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -524,7 +528,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -536,7 +540,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -548,7 +552,7 @@
         <v>0.15666666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -560,7 +564,7 @@
         <v>0.13166666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -572,7 +576,7 @@
         <v>0.11166666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -584,7 +588,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -596,7 +600,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -608,7 +612,7 @@
         <v>8.8333333333333333E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -620,7 +624,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -632,7 +636,7 @@
         <v>5.6666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -644,15 +648,20 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>SUM(B2:B11)</f>
         <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
